--- a/JAVA/多线程.xlsx
+++ b/JAVA/多线程.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\JAVA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0BC8ED-B16D-4F05-9CAE-3A593B7E7F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="8690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>http://blog.csdn.net/caohaicheng/article/details/38071097</t>
   </si>
@@ -29,18 +35,16 @@
   <si>
     <t>http://blog.csdn.net/qq_32166627/article/details/72279734</t>
   </si>
+  <si>
+    <t>https://www.cnblogs.com/revel171226/p/9411131.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,341 +57,25 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -395,251 +83,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -647,72 +96,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -728,13 +134,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -770,13 +182,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -812,13 +230,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -854,13 +278,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -896,13 +326,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -938,13 +374,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -980,13 +422,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1022,13 +470,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1064,13 +518,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1106,13 +566,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1148,13 +614,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1190,13 +662,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1232,13 +710,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1274,13 +758,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1316,13 +806,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1358,13 +854,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1400,13 +902,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1442,13 +950,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1484,13 +998,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1526,13 +1046,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1568,13 +1094,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1610,13 +1142,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1633,6 +1171,1035 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>94396</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>37580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CFE3E1-8E71-4359-B4F6-3A932B54DAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="83143725"/>
+          <a:ext cx="6828571" cy="4161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>37371</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>66293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE035B4-2D32-4701-A19A-2A13B661762C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="87534750"/>
+          <a:ext cx="5828571" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>113634</xdr:colOff>
+      <xdr:row>553</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C18A955-86B5-4887-BCE5-CDD27E30B38B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="90163650"/>
+          <a:ext cx="5323809" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>151906</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>114106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D08E976-2E0D-4624-A1B0-4434AB0F1DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="94402275"/>
+          <a:ext cx="3952381" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>151606</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>8915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C945AD-270E-48A0-A167-A639BE9FF359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="96631125"/>
+          <a:ext cx="6352381" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>599</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113646</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>123762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E7FB21-A917-47C7-817C-AB09483E4CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="102831900"/>
+          <a:ext cx="5228571" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>46763</xdr:colOff>
+      <xdr:row>611</xdr:row>
+      <xdr:rowOff>171282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A390CA7-21A2-4699-96E9-28DF25E3EB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="103584375"/>
+          <a:ext cx="6895238" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>18343</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>152125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873E9848-53EB-47C2-8A62-BA9F9A5D8030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="105279825"/>
+          <a:ext cx="5657143" cy="2200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>150263</xdr:colOff>
+      <xdr:row>662</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="https://upload-images.jianshu.io/upload_images/1689841-383f7101e6588094.png?imageMogr2/auto-orient/strip%7CimageView2/2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDF2A1F-82C9-482F-8799-5E6F84DACDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="109280325"/>
+          <a:ext cx="6484388" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>27715</xdr:colOff>
+      <xdr:row>687</xdr:row>
+      <xdr:rowOff>28152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BB5B76-7277-4342-9A20-23323C8241D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="114433350"/>
+          <a:ext cx="6876190" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>46781</xdr:colOff>
+      <xdr:row>704</xdr:row>
+      <xdr:rowOff>152064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1617CCD-4018-4356-9F04-4BD1B0EA02C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="118167150"/>
+          <a:ext cx="6752381" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>710</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142559</xdr:colOff>
+      <xdr:row>712</xdr:row>
+      <xdr:rowOff>95196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6D6BDE-026A-4DB2-95EF-A300AD544052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="121739025"/>
+          <a:ext cx="2523809" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>713</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>56339</xdr:colOff>
+      <xdr:row>726</xdr:row>
+      <xdr:rowOff>37832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582F4438-B492-4609-9267-F142ADFEE8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="122367675"/>
+          <a:ext cx="6485714" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>728</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>84969</xdr:colOff>
+      <xdr:row>756</xdr:row>
+      <xdr:rowOff>142257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABD381B-FC4D-46B4-9197-7830F6B3B075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="124815600"/>
+          <a:ext cx="6047619" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>758</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>46932</xdr:colOff>
+      <xdr:row>780</xdr:row>
+      <xdr:rowOff>37632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C04DE18-A14A-4541-8C1D-036A8E12E4CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="130025775"/>
+          <a:ext cx="5542857" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75880</xdr:colOff>
+      <xdr:row>804</xdr:row>
+      <xdr:rowOff>151917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA00897B-7572-407E-8655-9C2D2C55282C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="134131050"/>
+          <a:ext cx="2561905" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95030</xdr:colOff>
+      <xdr:row>810</xdr:row>
+      <xdr:rowOff>38024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2B08CA-F410-48E7-95B2-61FD82A33B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="138303000"/>
+          <a:ext cx="1761905" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>812</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123079</xdr:colOff>
+      <xdr:row>842</xdr:row>
+      <xdr:rowOff>123174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEF57B4-3BB0-4423-84E6-E198EA7E0560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="139274550"/>
+          <a:ext cx="5971429" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>846</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47487</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>104699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3FE88D-622F-41F3-B6D5-2A24CA90DD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="145056225"/>
+          <a:ext cx="1104762" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>8719</xdr:colOff>
+      <xdr:row>870</xdr:row>
+      <xdr:rowOff>152005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76498D77-1754-4819-A788-7621491332E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="146151600"/>
+          <a:ext cx="6447619" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>8892</xdr:colOff>
+      <xdr:row>877</xdr:row>
+      <xdr:rowOff>114215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEF6C7A-9F31-4290-B64A-81CB1B9216C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="149799675"/>
+          <a:ext cx="5066667" cy="676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>879</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>170676</xdr:colOff>
+      <xdr:row>912</xdr:row>
+      <xdr:rowOff>151681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9692608-FE12-4925-B24B-D7373CCB93E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="150761700"/>
+          <a:ext cx="6190476" cy="5752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>915</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>65840</xdr:colOff>
+      <xdr:row>942</xdr:row>
+      <xdr:rowOff>75614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A944F4BC-F04A-42E8-BA23-1B169172E132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="156895800"/>
+          <a:ext cx="6676190" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1921,84 +2488,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:I458"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I947"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="H453" sqref="H453"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="H945" sqref="H945"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.25454545454545" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="9:9">
+    <row r="383" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I383" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="5:5">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E458" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="947" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E947" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E458" r:id="rId2" display="http://blog.csdn.net/qq_32166627/article/details/72279734"/>
+    <hyperlink ref="E458" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E947" r:id="rId2" xr:uid="{F005F516-5046-401C-B446-21B498C5045F}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>